--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -77,12 +77,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -90,9 +114,6 @@
     <t>Sr. No</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
@@ -105,22 +126,25 @@
     <t>Pooja Patil (TL)</t>
   </si>
   <si>
-    <t>Dipali</t>
-  </si>
-  <si>
     <t>Shubhangi Navale</t>
   </si>
   <si>
-    <t>Rupali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pooja </t>
-  </si>
-  <si>
     <t>Note: Time 9 to 10 PM</t>
   </si>
   <si>
-    <t>Sayali</t>
+    <t>Dipali Sangekar</t>
+  </si>
+  <si>
+    <t>Rupali Patil</t>
+  </si>
+  <si>
+    <t>Pooja  Chandele</t>
+  </si>
+  <si>
+    <t>Sayali Chudhari</t>
+  </si>
+  <si>
+    <t>Reshma Bhuse</t>
   </si>
 </sst>
 </file>
@@ -526,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -573,12 +597,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -601,12 +627,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -629,12 +657,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -660,9 +690,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -688,9 +720,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -713,12 +747,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -741,10 +777,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -762,40 +802,14 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>11</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:S9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:S8">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -573,16 +573,32 @@
         <v>45292</v>
       </c>
       <c r="D1" s="4">
-        <v>45290</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+        <v>45293</v>
+      </c>
+      <c r="E1" s="4">
+        <v>45294</v>
+      </c>
+      <c r="F1" s="4">
+        <v>45295</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45296</v>
+      </c>
+      <c r="H1" s="4">
+        <v>45297</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45298</v>
+      </c>
+      <c r="J1" s="4">
+        <v>45299</v>
+      </c>
+      <c r="K1" s="4">
+        <v>45300</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45301</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -814,6 +830,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,9 @@
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -651,7 +653,9 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -681,7 +685,9 @@
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -711,7 +717,9 @@
       <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -741,7 +749,9 @@
       <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -771,7 +781,9 @@
       <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -801,7 +813,9 @@
       <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -53,6 +53,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+travelling</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -74,6 +98,30 @@
           </rPr>
           <t xml:space="preserve">
 Sayali did not join due to power off and network issue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tarvelling</t>
         </r>
       </text>
     </comment>
@@ -98,6 +146,30 @@
           </rPr>
           <t xml:space="preserve">
 No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Funtion</t>
         </r>
       </text>
     </comment>
@@ -106,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -550,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -562,7 +634,7 @@
     <col min="2" max="2" width="20.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -579,26 +651,24 @@
         <v>45294</v>
       </c>
       <c r="F1" s="4">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G1" s="4">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H1" s="4">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I1" s="4">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J1" s="4">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="K1" s="4">
-        <v>45300</v>
-      </c>
-      <c r="L1" s="4">
         <v>45301</v>
       </c>
+      <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -606,9 +676,8 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -624,7 +693,9 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -638,9 +709,8 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -656,7 +726,9 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -670,9 +742,8 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -688,7 +759,9 @@
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -702,9 +775,8 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -720,7 +792,9 @@
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -734,9 +808,8 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -752,7 +825,9 @@
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -766,9 +841,8 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -784,7 +858,9 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -798,9 +874,8 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -816,7 +891,9 @@
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -830,16 +907,15 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:S8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:R8">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -625,7 +625,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -696,7 +696,9 @@
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -729,7 +731,9 @@
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -762,7 +766,9 @@
       <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -795,7 +801,9 @@
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -828,7 +836,9 @@
       <c r="F6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -861,7 +871,9 @@
       <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -894,7 +906,9 @@
       <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -622,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
     <col min="2" max="2" width="20.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -657,17 +657,15 @@
         <v>45297</v>
       </c>
       <c r="H1" s="4">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I1" s="4">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J1" s="4">
-        <v>45300</v>
-      </c>
-      <c r="K1" s="4">
         <v>45301</v>
       </c>
+      <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -675,9 +673,8 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -699,7 +696,9 @@
       <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -710,9 +709,8 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -734,7 +732,9 @@
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -745,9 +745,8 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -769,7 +768,9 @@
       <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -780,9 +781,8 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -804,7 +804,9 @@
       <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -815,9 +817,8 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -839,7 +840,9 @@
       <c r="G6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -850,9 +853,8 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -874,7 +876,9 @@
       <c r="G7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -885,9 +889,8 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -909,7 +912,9 @@
       <c r="G8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -920,16 +925,15 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:R8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:Q8">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -29,6 +29,30 @@
     <author>pooja patil</author>
   </authors>
   <commentList>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+outside</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -50,6 +74,30 @@
           </rPr>
           <t xml:space="preserve">
 No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+network issue</t>
         </r>
       </text>
     </comment>
@@ -170,6 +218,30 @@
           </rPr>
           <t xml:space="preserve">
 Funtion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
         </r>
       </text>
     </comment>
@@ -178,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -625,7 +697,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -699,8 +771,12 @@
       <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -735,8 +811,12 @@
       <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -771,8 +851,12 @@
       <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -807,8 +891,12 @@
       <c r="H5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -843,8 +931,12 @@
       <c r="H6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -879,8 +971,12 @@
       <c r="H7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -915,8 +1011,12 @@
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -245,12 +245,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="K8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t>Student Name</t>
   </si>
@@ -289,6 +313,9 @@
   </si>
   <si>
     <t>Reshma Bhuse</t>
+  </si>
+  <si>
+    <t>1101-2024</t>
   </si>
 </sst>
 </file>
@@ -697,7 +724,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -737,7 +764,9 @@
       <c r="J1" s="4">
         <v>45301</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -777,7 +806,9 @@
       <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -817,7 +848,9 @@
       <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -857,7 +890,9 @@
       <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -897,7 +932,9 @@
       <c r="J5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -937,7 +974,9 @@
       <c r="J6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -977,7 +1016,9 @@
       <c r="J7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1017,7 +1058,9 @@
       <c r="J8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -269,12 +269,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -313,9 +361,6 @@
   </si>
   <si>
     <t>Reshma Bhuse</t>
-  </si>
-  <si>
-    <t>1101-2024</t>
   </si>
 </sst>
 </file>
@@ -724,7 +769,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -764,11 +809,15 @@
       <c r="J1" s="4">
         <v>45301</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="K1" s="4">
+        <v>45302</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45303</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45304</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -809,8 +858,12 @@
       <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -851,8 +904,12 @@
       <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -893,8 +950,12 @@
       <c r="K4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -935,8 +996,12 @@
       <c r="K5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -977,8 +1042,12 @@
       <c r="K6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1019,8 +1088,12 @@
       <c r="K7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1061,8 +1134,12 @@
       <c r="K8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -317,12 +317,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="N8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+power out</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -769,7 +865,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -818,10 +914,18 @@
       <c r="M1" s="4">
         <v>45304</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="4">
+        <v>45305</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45306</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45307</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>45308</v>
+      </c>
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -864,10 +968,18 @@
       <c r="M2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -910,10 +1022,18 @@
       <c r="M3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -956,10 +1076,18 @@
       <c r="M4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1002,10 +1130,18 @@
       <c r="M5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1048,10 +1184,18 @@
       <c r="M6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1094,10 +1238,18 @@
       <c r="M7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1140,10 +1292,18 @@
       <c r="M8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R8" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -418,7 +418,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,7 +543,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -926,385 +925,401 @@
       <c r="Q1" s="4">
         <v>45308</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="4">
+        <v>45309</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="7"/>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="7"/>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="G8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="7"/>
+      <c r="K8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1313,7 +1328,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:Q8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:R8">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="January 2024" sheetId="1" r:id="rId1"/>
+    <sheet name="February 24" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -417,8 +418,210 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pooja patil</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sayali did not join due to power off and network issue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="17">
   <si>
     <t>Student Name</t>
   </si>
@@ -457,6 +660,18 @@
   </si>
   <si>
     <t>Reshma Bhuse</t>
+  </si>
+  <si>
+    <t>Dipti</t>
+  </si>
+  <si>
+    <t>Manisha</t>
+  </si>
+  <si>
+    <t>Manisha Khaloke</t>
+  </si>
+  <si>
+    <t>Dipti Shelavane</t>
   </si>
 </sst>
 </file>
@@ -861,19 +1076,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="9" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="10.09765625" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" customWidth="1"/>
+    <col min="16" max="16" width="20.09765625" customWidth="1"/>
+    <col min="17" max="17" width="16.09765625" customWidth="1"/>
+    <col min="18" max="18" width="20.19921875" customWidth="1"/>
+    <col min="19" max="19" width="10.8984375" customWidth="1"/>
+    <col min="20" max="20" width="12.3984375" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" customWidth="1"/>
+    <col min="23" max="23" width="15.3984375" customWidth="1"/>
+    <col min="24" max="24" width="12.796875" customWidth="1"/>
+    <col min="25" max="25" width="10.8984375" customWidth="1"/>
+    <col min="26" max="26" width="11.296875" customWidth="1"/>
+    <col min="27" max="27" width="11.59765625" customWidth="1"/>
+    <col min="28" max="28" width="12.59765625" customWidth="1"/>
+    <col min="29" max="29" width="10.59765625" customWidth="1"/>
+    <col min="30" max="30" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -928,8 +1170,44 @@
       <c r="R1" s="4">
         <v>45309</v>
       </c>
+      <c r="S1" s="4">
+        <v>45310</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45311</v>
+      </c>
+      <c r="U1" s="4">
+        <v>45313</v>
+      </c>
+      <c r="V1" s="4">
+        <v>45314</v>
+      </c>
+      <c r="W1" s="4">
+        <v>45315</v>
+      </c>
+      <c r="X1" s="4">
+        <v>45316</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>45317</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>45318</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>45319</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>45320</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>45321</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>45322</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -984,8 +1262,44 @@
       <c r="R2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="S2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1040,8 +1354,44 @@
       <c r="R3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="S3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1096,8 +1446,44 @@
       <c r="R4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="S4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1152,8 +1538,44 @@
       <c r="R5" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="S5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1208,8 +1630,44 @@
       <c r="R6" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="S6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1264,8 +1722,44 @@
       <c r="R7" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="S7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1320,15 +1814,79 @@
       <c r="R8" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="S8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:R8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AB8 AC2:AD10">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1336,4 +1894,207 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>45323</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45324</v>
+      </c>
+      <c r="E1" s="4">
+        <v>45325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E10">
+      <formula1>"Present, Absent,Reason"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project Batch daily Sheet React B10 G2.xlsx
+++ b/Project Batch daily Sheet React B10 G2.xlsx
@@ -496,6 +496,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
@@ -544,6 +592,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -593,6 +713,30 @@
       </text>
     </comment>
     <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pooja patil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Update</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +765,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="17">
   <si>
     <t>Student Name</t>
   </si>
@@ -1898,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1911,9 +2055,10 @@
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="13.796875" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1929,8 +2074,17 @@
       <c r="E1" s="4">
         <v>45325</v>
       </c>
+      <c r="F1" s="4">
+        <v>45327</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45328</v>
+      </c>
+      <c r="H1" s="4">
+        <v>45329</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1946,8 +2100,17 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1963,8 +2126,17 @@
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1980,8 +2152,17 @@
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1997,8 +2178,17 @@
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2014,8 +2204,17 @@
       <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2031,8 +2230,17 @@
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2048,8 +2256,17 @@
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2065,8 +2282,17 @@
       <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2082,15 +2308,24 @@
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:H10">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
